--- a/prodinfo/mea/output/res20251112.xlsx
+++ b/prodinfo/mea/output/res20251112.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,289 +446,9 @@
         <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s9-tablet-pc-622743.html</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Samsung Galaxy Tab S9 2023, Tablet - Wi-Fi, 11", 128 GB, Octa Core, Graphite</v>
-      </c>
-      <c r="B5" t="str">
-        <v>1738.2609</v>
-      </c>
-      <c r="C5" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s8-tablet-pc-622744.html</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Samsung Galaxy Tab A9+ Tablet - 5G, 11", 128 GB, Octa Core, Graphite</v>
-      </c>
-      <c r="B6" t="str">
-        <v>1042.6087</v>
-      </c>
-      <c r="C6" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/samsung-tablet-pc-626575.html</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/samsung-tablet-pc-626635.html</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Lenovo Tab M10 Plus (3rd Gen) Tablet - 4G (with Case Cover + Stylus), 10.61", 128 GB, Octa Core, Storm Grey</v>
-      </c>
-      <c r="B8" t="str">
-        <v>1042.6087</v>
-      </c>
-      <c r="C8" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/lenovo-tab-m10-plus-3rd-gen-tablet-pc-600571.html</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Lenovo Tab P11 Plus Tablet - 4G (with Keyboard), 11", 128 GB, Octa Core, Slate Grey</v>
-      </c>
-      <c r="B9" t="str">
-        <v>781.7391</v>
-      </c>
-      <c r="C9" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/lenovo-tab-p11-plus-tablet-pc-597113.html</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Lenovo Tab K11 2024, Tablet - 4G (with Case Cover), AI, 11", 128 GB (eMMC), Octa Core, Luna Grey</v>
-      </c>
-      <c r="B10" t="str">
-        <v>868.6957</v>
-      </c>
-      <c r="C10" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/lenovo-k11-tablet-pc-636977.html</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Honor Pad V9 2025, Tablet - Wi-Fi (with Case Cover + Stylus), 11.5", 256 GB, Grey</v>
-      </c>
-      <c r="B11" t="str">
-        <v>1303.4783</v>
-      </c>
-      <c r="C11" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/honor-pad-x9-tablet-pc-652869.html</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Honor Pad 9 Tablet - Wi-Fi (with Keyboard), 12.1", 256 GB, Octa Core, Space Grey</v>
-      </c>
-      <c r="B12" t="str">
-        <v>868.6957</v>
-      </c>
-      <c r="C12" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/honor-tablet-pc-631623.html</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Honor Pad 8 Tablet - Wi-Fi, 12", 128 GB, Octa Core, Blue Hour</v>
-      </c>
-      <c r="B13" t="str">
-        <v>955.6522</v>
-      </c>
-      <c r="C13" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/honor-tablet-pc-595807.html</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Honor Pad 8 Tablet - Wi-Fi, 12", 256 GB, Octa Core, Blue Hour</v>
-      </c>
-      <c r="B14" t="str">
-        <v>1216.5217</v>
-      </c>
-      <c r="C14" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/honor-tablet-pc-620165.html</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Honor MagicPad2 2024, Tablet - Wi-Fi (with Keyboard + Pen), 12.3", 256 GB, Octa Core, White</v>
-      </c>
-      <c r="B15" t="str">
-        <v>1738.2609</v>
-      </c>
-      <c r="C15" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/honor-tablet-pc-641860.html</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Xiaomi Redmi Pad SE 11 2023, Tablet - Wi-Fi, 11", 256 GB, Octa Core, Graphite Grey</v>
-      </c>
-      <c r="B16" t="str">
-        <v>564.3478</v>
-      </c>
-      <c r="C16" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/xiaomi-tablet-pc-626956.html</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Xiaomi Redmi Pad SE 8.7 2024, Tablet - Wi-Fi, 8.7", 128 GB, Octa Core, Graphite Grey</v>
-      </c>
-      <c r="B17" t="str">
-        <v>520.8696</v>
-      </c>
-      <c r="C17" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/xiaomi-redmi-pad-se-tablet-pc-640256.html</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Xiaomi Redmi Pad Pro Tablet - Wi-Fi, 12.1", 256 GB, Octa Core, Graphite Grey</v>
-      </c>
-      <c r="B18" t="str">
-        <v>738.2609</v>
-      </c>
-      <c r="C18" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/xiaomi-tablet-pc-636068.html</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Xiaomi Pad 5 2021, Tablet - Wi-Fi, 11", 256 GB, Octa Core, Cosmic Grey</v>
-      </c>
-      <c r="B19" t="str">
-        <v>1390.4348</v>
-      </c>
-      <c r="C19" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/xiaomi-tablet-pc-573427.html</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Xiaomi Pad 6 Tablet - Wi-Fi, 11", 256 GB, Octa Core, Gravity Grey</v>
-      </c>
-      <c r="B20" t="str">
-        <v>1390.4348</v>
-      </c>
-      <c r="C20" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/xiaomi-tablet-pc-620300.html</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Apple iPad 10.9 10th Gen 2022, Tablet - Wi-Fi, 10.9", 64 GB, 6-core CPU, Blue</v>
-      </c>
-      <c r="B21" t="str">
-        <v>1129.5652</v>
-      </c>
-      <c r="C21" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-10-9-10th-gen-tablet-pc-598663.html</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Apple iPad 10.9 10th Gen 2022, Tablet - Wi-Fi, 10.9", 256 GB, 6-core CPU, Blue</v>
-      </c>
-      <c r="B22" t="str">
-        <v>1651.3043</v>
-      </c>
-      <c r="C22" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-10-9-10th-gen-tablet-pc-598670.html</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Apple iPad Air 10.9 5th Gen 2022, Tablet - Wi-Fi, 10.9", 64 GB, Space Grey</v>
-      </c>
-      <c r="B23" t="str">
-        <v>2129.5652</v>
-      </c>
-      <c r="C23" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/apple-tablet-pc-581897.html</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Apple iPad Air 10.9 5th Gen 2022, Tablet - Wi-Fi, 10.9", 256 GB, Blue</v>
-      </c>
-      <c r="B24" t="str">
-        <v>2651.3043</v>
-      </c>
-      <c r="C24" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/apple-tablet-pc-581951.html</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Apple iPad Air 11 M2 2024, Tablet - Wi-Fi, Apple Intelligence, 11", 128 GB, Space Grey</v>
-      </c>
-      <c r="B25" t="str">
-        <v>2346.9565</v>
-      </c>
-      <c r="C25" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-air-11-m2-2024-tablet-pc-635509.html</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Apple iPad Air 13 M2 2024, Tablet - Wi-Fi, Apple Intelligence, 13", 128 GB, Space Grey</v>
-      </c>
-      <c r="B26" t="str">
-        <v>2955.6522</v>
-      </c>
-      <c r="C26" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-air-13-m2-2024-tablet-pc-635552.html</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Apple iPad Pro 11 M2 2022, Tablet - Wi-Fi, Apple Intelligence, 11", 128 GB, 8-core CPU, Space Grey</v>
-      </c>
-      <c r="B27" t="str">
-        <v>2912.1739</v>
-      </c>
-      <c r="C27" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-pro-11-2022-tablet-pc-598666.html</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Apple iPad Pro 11 M4 2024, Tablet - Wi-Fi, Apple Intelligence, 11", 256 GB, 9-core CPU, Space Black</v>
-      </c>
-      <c r="B28" t="str">
-        <v>3651.3043</v>
-      </c>
-      <c r="C28" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-pro-11-m4-2024-tablet-pc-635573.html</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Apple iPad Pro 12.9 M2 2022, Tablet - Wi-Fi, Apple Intelligence, 12.9", 128 GB, 8-core CPU, Space Grey</v>
-      </c>
-      <c r="B29" t="str">
-        <v>4346.9565</v>
-      </c>
-      <c r="C29" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-pro-12-9-2022-tablet-pc-598691.html</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Apple iPad Pro 13 M4 2024, Tablet - Wi-Fi, Apple Intelligence, 13", 256 GB, 9-core CPU, Space Black</v>
-      </c>
-      <c r="B30" t="str">
-        <v>4781.7391</v>
-      </c>
-      <c r="C30" t="str">
-        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-pro-13-m4-2024-tablet-pc-635597.html</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/prodinfo/mea/output/res20251112.xlsx
+++ b/prodinfo/mea/output/res20251112.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,9 +446,289 @@
         <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s9-tablet-pc-622743.html</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Samsung Galaxy Tab S9 2023, Tablet - Wi-Fi, 11", 128 GB, Octa Core, Graphite</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1738.2609</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s8-tablet-pc-622744.html</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Samsung Galaxy Tab A9+ Tablet - 5G, 11", 128 GB, Octa Core, Graphite</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1042.6087</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/samsung-tablet-pc-626575.html</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/samsung-tablet-pc-626635.html</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Lenovo Tab M10 Plus (3rd Gen) Tablet - 4G (with Case Cover + Stylus), 10.61", 128 GB, Octa Core, Storm Grey</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1042.6087</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/lenovo-tab-m10-plus-3rd-gen-tablet-pc-600571.html</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Lenovo Tab P11 Plus Tablet - 4G (with Keyboard), 11", 128 GB, Octa Core, Slate Grey</v>
+      </c>
+      <c r="B9" t="str">
+        <v>781.7391</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/lenovo-tab-p11-plus-tablet-pc-597113.html</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Lenovo Tab K11 2024, Tablet - 4G (with Case Cover), AI, 11", 128 GB (eMMC), Octa Core, Luna Grey</v>
+      </c>
+      <c r="B10" t="str">
+        <v>868.6957</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/lenovo-k11-tablet-pc-636977.html</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Honor Pad V9 2025, Tablet - Wi-Fi (with Case Cover + Stylus), 11.5", 256 GB, Grey</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1303.4783</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/honor-pad-x9-tablet-pc-652869.html</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Honor Pad 9 Tablet - Wi-Fi (with Keyboard), 12.1", 256 GB, Octa Core, Space Grey</v>
+      </c>
+      <c r="B12" t="str">
+        <v>868.6957</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/honor-tablet-pc-631623.html</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Honor Pad 8 Tablet - Wi-Fi, 12", 128 GB, Octa Core, Blue Hour</v>
+      </c>
+      <c r="B13" t="str">
+        <v>955.6522</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/honor-tablet-pc-595807.html</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Honor Pad 8 Tablet - Wi-Fi, 12", 256 GB, Octa Core, Blue Hour</v>
+      </c>
+      <c r="B14" t="str">
+        <v>1216.5217</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/honor-tablet-pc-620165.html</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Honor MagicPad2 2024, Tablet - Wi-Fi (with Keyboard + Pen), 12.3", 256 GB, Octa Core, White</v>
+      </c>
+      <c r="B15" t="str">
+        <v>1738.2609</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/honor-tablet-pc-641860.html</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Xiaomi Redmi Pad SE 11 2023, Tablet - Wi-Fi, 11", 256 GB, Octa Core, Graphite Grey</v>
+      </c>
+      <c r="B16" t="str">
+        <v>564.3478</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/xiaomi-tablet-pc-626956.html</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Xiaomi Redmi Pad SE 8.7 2024, Tablet - Wi-Fi, 8.7", 128 GB, Octa Core, Graphite Grey</v>
+      </c>
+      <c r="B17" t="str">
+        <v>520.8696</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/xiaomi-redmi-pad-se-tablet-pc-640256.html</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Xiaomi Redmi Pad Pro Tablet - Wi-Fi, 12.1", 256 GB, Octa Core, Graphite Grey</v>
+      </c>
+      <c r="B18" t="str">
+        <v>738.2609</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/xiaomi-tablet-pc-636068.html</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Xiaomi Pad 5 2021, Tablet - Wi-Fi, 11", 256 GB, Octa Core, Cosmic Grey</v>
+      </c>
+      <c r="B19" t="str">
+        <v>1390.4348</v>
+      </c>
+      <c r="C19" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/xiaomi-tablet-pc-573427.html</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Xiaomi Pad 6 Tablet - Wi-Fi, 11", 256 GB, Octa Core, Gravity Grey</v>
+      </c>
+      <c r="B20" t="str">
+        <v>1390.4348</v>
+      </c>
+      <c r="C20" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/xiaomi-tablet-pc-620300.html</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Apple iPad 10.9 10th Gen 2022, Tablet - Wi-Fi, 10.9", 64 GB, 6-core CPU, Blue</v>
+      </c>
+      <c r="B21" t="str">
+        <v>1129.5652</v>
+      </c>
+      <c r="C21" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-10-9-10th-gen-tablet-pc-598663.html</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Apple iPad 10.9 10th Gen 2022, Tablet - Wi-Fi, 10.9", 256 GB, 6-core CPU, Blue</v>
+      </c>
+      <c r="B22" t="str">
+        <v>1651.3043</v>
+      </c>
+      <c r="C22" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-10-9-10th-gen-tablet-pc-598670.html</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Apple iPad Air 10.9 5th Gen 2022, Tablet - Wi-Fi, 10.9", 64 GB, Space Grey</v>
+      </c>
+      <c r="B23" t="str">
+        <v>2129.5652</v>
+      </c>
+      <c r="C23" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/apple-tablet-pc-581897.html</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Apple iPad Air 10.9 5th Gen 2022, Tablet - Wi-Fi, 10.9", 256 GB, Blue</v>
+      </c>
+      <c r="B24" t="str">
+        <v>2651.3043</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/apple-tablet-pc-581951.html</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Apple iPad Air 11 M2 2024, Tablet - Wi-Fi, Apple Intelligence, 11", 128 GB, Space Grey</v>
+      </c>
+      <c r="B25" t="str">
+        <v>2346.9565</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-air-11-m2-2024-tablet-pc-635509.html</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Apple iPad Air 13 M2 2024, Tablet - Wi-Fi, Apple Intelligence, 13", 128 GB, Space Grey</v>
+      </c>
+      <c r="B26" t="str">
+        <v>2955.6522</v>
+      </c>
+      <c r="C26" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-air-13-m2-2024-tablet-pc-635552.html</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Apple iPad Pro 11 M2 2022, Tablet - Wi-Fi, Apple Intelligence, 11", 128 GB, 8-core CPU, Space Grey</v>
+      </c>
+      <c r="B27" t="str">
+        <v>2912.1739</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-pro-11-2022-tablet-pc-598666.html</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Apple iPad Pro 11 M4 2024, Tablet - Wi-Fi, Apple Intelligence, 11", 256 GB, 9-core CPU, Space Black</v>
+      </c>
+      <c r="B28" t="str">
+        <v>3651.3043</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-pro-11-m4-2024-tablet-pc-635573.html</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Apple iPad Pro 12.9 M2 2022, Tablet - Wi-Fi, Apple Intelligence, 12.9", 128 GB, 8-core CPU, Space Grey</v>
+      </c>
+      <c r="B29" t="str">
+        <v>4346.9565</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-pro-12-9-2022-tablet-pc-598691.html</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Apple iPad Pro 13 M4 2024, Tablet - Wi-Fi, Apple Intelligence, 13", 256 GB, 9-core CPU, Space Black</v>
+      </c>
+      <c r="B30" t="str">
+        <v>4781.7391</v>
+      </c>
+      <c r="C30" t="str">
+        <v>https://www.jarir.com/sa-en/default-category/apple-ipad-pro-13-m4-2024-tablet-pc-635597.html</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C30"/>
   </ignoredErrors>
 </worksheet>
 </file>